--- a/data/trans_orig/P14B22-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B22-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F723C9E3-5222-4E7E-BC3B-2DC9B7A49778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20E31F78-EDB9-404A-A15E-E45CA4973971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D7CC424-D929-4345-A6CA-165FB322674F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A2A1D17B-286F-4DBD-B6D2-6BD2A8201D09}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="202">
   <si>
     <t>Población cuyo accidente cerebrovascular le limita en 2012 (Tasa respuesta: 0,78%)</t>
   </si>
@@ -76,97 +76,97 @@
     <t>75,37%</t>
   </si>
   <si>
-    <t>53,27%</t>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>24,63%</t>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
+    <t>56,66%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -181,10 +181,10 @@
     <t>17,01%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -202,55 +202,55 @@
     <t>74,55%</t>
   </si>
   <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -262,187 +262,187 @@
     <t>70,99%</t>
   </si>
   <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
   </si>
   <si>
     <t>68,54%</t>
   </si>
   <si>
-    <t>33,16%</t>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>69,62%</t>
   </si>
   <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>29,01%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
   </si>
   <si>
     <t>31,46%</t>
   </si>
   <si>
-    <t>66,84%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
   </si>
   <si>
     <t>30,38%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
   </si>
   <si>
     <t>52,11%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>67,85%</t>
   </si>
   <si>
-    <t>32,82%</t>
+    <t>18,77%</t>
   </si>
   <si>
     <t>59,15%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
   </si>
   <si>
     <t>47,89%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>67,18%</t>
+    <t>81,23%</t>
   </si>
   <si>
     <t>40,85%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
   </si>
   <si>
     <t>37,38%</t>
   </si>
   <si>
-    <t>80,89%</t>
-  </si>
-  <si>
     <t>36,6%</t>
   </si>
   <si>
     <t>37,06%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>62,62%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
     <t>63,4%</t>
   </si>
   <si>
     <t>62,94%</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>56,35%</t>
   </si>
   <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
   </si>
   <si>
     <t>63,24%</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
   </si>
   <si>
     <t>43,65%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
   </si>
   <si>
     <t>36,76%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
   </si>
   <si>
     <t>Población cuyo accidente cerebrovascular le limita en 2023 (Tasa respuesta: 1,44%)</t>
@@ -451,109 +451,109 @@
     <t>46,46%</t>
   </si>
   <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
   </si>
   <si>
     <t>62,86%</t>
   </si>
   <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
   </si>
   <si>
     <t>56,25%</t>
   </si>
   <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
   </si>
   <si>
     <t>53,54%</t>
   </si>
   <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
   </si>
   <si>
     <t>37,14%</t>
   </si>
   <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
   </si>
   <si>
     <t>43,75%</t>
   </si>
   <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
   </si>
   <si>
     <t>73,7%</t>
   </si>
   <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>41,48%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
   </si>
   <si>
     <t>62,37%</t>
   </si>
   <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>26,3%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
   </si>
   <si>
     <t>58,52%</t>
   </si>
   <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
   </si>
   <si>
     <t>37,63%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -562,13 +562,16 @@
     <t>36,63%</t>
   </si>
   <si>
+    <t>92,74%</t>
+  </si>
+  <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -577,67 +580,70 @@
     <t>63,37%</t>
   </si>
   <si>
+    <t>7,26%</t>
+  </si>
+  <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>67,01%</t>
   </si>
   <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
   </si>
   <si>
     <t>54,04%</t>
   </si>
   <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
   </si>
   <si>
     <t>61,04%</t>
   </si>
   <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
   </si>
   <si>
     <t>32,99%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
   </si>
   <si>
     <t>45,96%</t>
   </si>
   <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
   </si>
   <si>
     <t>38,96%</t>
   </si>
   <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABB2DEA-1C0D-4AB7-BEF5-CBD7F7C6B721}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755D7985-FD5C-4D35-A189-A018860D6BDF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1794,7 +1800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A65431A-911E-45BE-90E5-9A2AA54204D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DC1571-184A-495E-88A7-4FDB1DCF49D6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1939,7 +1945,7 @@
         <v>77</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -1948,13 +1954,13 @@
         <v>13732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1975,13 @@
         <v>2518</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -1984,13 +1990,13 @@
         <v>3475</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1999,13 +2005,13 @@
         <v>5993</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,13 +2079,13 @@
         <v>4154</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2088,10 +2094,10 @@
         <v>4370</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>35</v>
@@ -2103,13 +2109,13 @@
         <v>8524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,13 +2130,13 @@
         <v>3817</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2139,13 +2145,13 @@
         <v>2071</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2154,13 +2160,13 @@
         <v>5888</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2234,13 @@
         <v>1838</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2243,7 +2249,7 @@
         <v>1213</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>43</v>
@@ -2258,13 +2264,13 @@
         <v>3051</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,10 +2285,10 @@
         <v>3079</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>35</v>
@@ -2545,7 +2551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0E60A-8501-4E7A-8461-17DE7D96360E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9826BF2B-51C3-43DD-AFA9-BA9EE7FCC9B4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3000,7 +3006,7 @@
         <v>43</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3009,13 +3015,13 @@
         <v>5262</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,7 +3042,7 @@
         <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3045,10 +3051,10 @@
         <v>1174</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>35</v>
@@ -3060,13 +3066,13 @@
         <v>1174</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3140,13 @@
         <v>30301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -3149,13 +3155,13 @@
         <v>20798</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -3164,13 +3170,13 @@
         <v>51100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3191,13 @@
         <v>14918</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -3200,13 +3206,13 @@
         <v>17692</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>51</v>
@@ -3215,13 +3221,13 @@
         <v>32609</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B22-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B22-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20E31F78-EDB9-404A-A15E-E45CA4973971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B60CD6D6-B1F7-4132-A0FA-10022C42881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A2A1D17B-286F-4DBD-B6D2-6BD2A8201D09}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1935A106-529D-4E6A-9507-1FFE2C0E110A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -76,28 +76,28 @@
     <t>75,37%</t>
   </si>
   <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>80,5%</t>
   </si>
   <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
   </si>
   <si>
     <t>77,67%</t>
   </si>
   <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>24,63%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
   </si>
   <si>
     <t>22,33%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,13 +139,10 @@
     <t>72,99%</t>
   </si>
   <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -154,22 +151,19 @@
     <t>82,99%</t>
   </si>
   <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
   </si>
   <si>
     <t>0%</t>
@@ -181,10 +175,10 @@
     <t>17,01%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -202,247 +196,253 @@
     <t>74,55%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo accidente cerebrovascular le limita en 2015 (Tasa respuesta: 0,59%)</t>
+    <t>Población cuyo accidente cerebrovascular le limita en 2016 (Tasa respuesta: 0,59%)</t>
   </si>
   <si>
     <t>70,99%</t>
   </si>
   <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>68,54%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
   </si>
   <si>
     <t>69,62%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>29,01%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
   </si>
   <si>
     <t>31,46%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
   </si>
   <si>
     <t>30,38%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
   </si>
   <si>
     <t>52,11%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>67,85%</t>
   </si>
   <si>
-    <t>18,77%</t>
+    <t>17,22%</t>
   </si>
   <si>
     <t>59,15%</t>
   </si>
   <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>47,89%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>81,23%</t>
+    <t>82,78%</t>
   </si>
   <si>
     <t>40,85%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>37,38%</t>
   </si>
   <si>
+    <t>81,12%</t>
+  </si>
+  <si>
     <t>36,6%</t>
   </si>
   <si>
     <t>37,06%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>62,62%</t>
   </si>
   <si>
+    <t>18,88%</t>
+  </si>
+  <si>
     <t>63,4%</t>
   </si>
   <si>
     <t>62,94%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>56,35%</t>
   </si>
   <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>63,24%</t>
   </si>
   <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
   </si>
   <si>
     <t>43,65%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
   </si>
   <si>
     <t>36,76%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
   </si>
   <si>
     <t>Población cuyo accidente cerebrovascular le limita en 2023 (Tasa respuesta: 1,44%)</t>
@@ -1055,7 +1055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755D7985-FD5C-4D35-A189-A018860D6BDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BDF31F-E06C-4298-BFEA-56DC3407CDBC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1349,10 +1349,10 @@
         <v>6408</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>30</v>
@@ -1364,13 +1364,13 @@
         <v>14363</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1385,13 +1385,13 @@
         <v>2944</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1400,13 +1400,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -1415,13 +1415,13 @@
         <v>2944</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1477,7 +1477,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1487,13 +1487,13 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1502,10 +1502,10 @@
         <v>1100</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -1517,10 +1517,10 @@
         <v>1100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -1536,13 +1536,13 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1551,13 +1551,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,13 +1585,13 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1638,13 +1638,13 @@
         <v>23570</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -1653,13 +1653,13 @@
         <v>21036</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -1668,13 +1668,13 @@
         <v>44606</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,13 +1689,13 @@
         <v>8047</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1704,13 +1704,13 @@
         <v>3276</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -1719,13 +1719,13 @@
         <v>11323</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,7 +1781,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DC1571-184A-495E-88A7-4FDB1DCF49D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13690F0B-CEFD-43CD-A301-AA663633A196}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1817,7 +1817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1924,13 +1924,13 @@
         <v>6162</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -1939,13 +1939,13 @@
         <v>7570</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -1954,13 +1954,13 @@
         <v>13732</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1975,13 @@
         <v>2518</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -1990,13 +1990,13 @@
         <v>3475</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2005,13 +2005,13 @@
         <v>5993</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,13 +2079,13 @@
         <v>4154</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2094,13 +2094,13 @@
         <v>4370</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2109,13 +2109,13 @@
         <v>8524</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,13 +2130,13 @@
         <v>3817</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2145,13 +2145,13 @@
         <v>2071</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2160,13 +2160,13 @@
         <v>5888</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,7 +2222,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2234,13 +2234,13 @@
         <v>1838</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2249,13 +2249,13 @@
         <v>1213</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2264,13 +2264,13 @@
         <v>3051</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2285,13 @@
         <v>3079</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2303,10 +2303,10 @@
         <v>113</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2551,7 +2551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9826BF2B-51C3-43DD-AFA9-BA9EE7FCC9B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B7230F-A28B-4E07-9ED4-5E6AD2045590}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2973,7 +2973,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2985,7 +2985,7 @@
         <v>4584</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>172</v>
@@ -3003,7 +3003,7 @@
         <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>174</v>
@@ -3036,10 +3036,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>178</v>
@@ -3057,7 +3057,7 @@
         <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
